--- a/doors_detection_long_term/scripts/results/yolov5_complete_metric_real_data_different_condition.xlsx
+++ b/doors_detection_long_term/scripts/results/yolov5_complete_metric_real_data_different_condition.xlsx
@@ -536,17 +536,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>276</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>79</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -601,17 +601,17 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>246</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>69</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -666,17 +666,17 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>203</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -731,22 +731,22 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>317</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>109</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -796,17 +796,17 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>276</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>246</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>203</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -991,17 +991,17 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>317</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1056,17 +1056,17 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>276</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>91</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>246</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>37</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -1186,19 +1186,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>203</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>0</t>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1251,22 +1251,22 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>317</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>129</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -1316,17 +1316,17 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>276</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>142</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1381,17 +1381,17 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>246</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>108</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1446,17 +1446,17 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>276</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>173</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1511,22 +1511,22 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>246</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1576,17 +1576,17 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>276</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>183</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1641,22 +1641,22 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>246</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>123</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1706,17 +1706,17 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>276</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>189</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1771,22 +1771,22 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>246</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>130</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -1836,17 +1836,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>276</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>117</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1901,17 +1901,17 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>246</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>47</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -1966,17 +1966,17 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>276</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>136</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2031,17 +2031,17 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>246</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>63</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2096,17 +2096,17 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>276</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>164</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2161,32 +2161,32 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>246</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>73</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -2226,17 +2226,17 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>276</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>165</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2291,17 +2291,17 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>246</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>88</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2356,17 +2356,17 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>276</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>158</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2421,17 +2421,17 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>246</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2486,17 +2486,17 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>276</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>181</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2551,17 +2551,17 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>246</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>107</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2616,17 +2616,17 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>276</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>187</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2681,17 +2681,17 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>246</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>130</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -2746,17 +2746,17 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>276</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>185</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2811,22 +2811,22 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>246</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>127</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2876,17 +2876,17 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>203</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>48</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2941,17 +2941,17 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>317</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>129</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -3006,17 +3006,17 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>203</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>99</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3071,22 +3071,22 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>317</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>141</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3136,17 +3136,17 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>203</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>117</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -3201,17 +3201,17 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>317</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>196</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3266,17 +3266,17 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>203</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -3331,22 +3331,22 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>317</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>199</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -3396,17 +3396,17 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>203</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>43</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -3461,12 +3461,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>317</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>52</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -3526,17 +3526,17 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>203</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>65</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -3591,22 +3591,22 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>317</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>88</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -3656,22 +3656,22 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>203</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>92</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -3721,17 +3721,17 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>317</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>134</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3786,17 +3786,17 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>203</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>94</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3811,7 +3811,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -3851,22 +3851,22 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>317</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>136</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -3916,32 +3916,32 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>203</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>71</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3981,17 +3981,17 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>317</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>137</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -4046,17 +4046,17 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>203</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>93</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4111,22 +4111,22 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>317</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>171</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -4176,32 +4176,32 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>203</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>110</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -4241,22 +4241,22 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>317</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>188</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -4306,17 +4306,17 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>203</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>105</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -4371,32 +4371,32 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>317</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>187</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
           <t>7</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>

--- a/doors_detection_long_term/scripts/results/yolov5_complete_metric_real_data_different_condition.xlsx
+++ b/doors_detection_long_term/scripts/results/yolov5_complete_metric_real_data_different_condition.xlsx
@@ -536,17 +536,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>125</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -601,17 +601,17 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>135</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -666,32 +666,32 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -731,22 +731,22 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>215</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -796,17 +796,17 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -861,32 +861,32 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -991,22 +991,22 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>71</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1056,17 +1056,17 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>156</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1121,17 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>91</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -1186,32 +1186,32 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
           <t>10</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>
@@ -1251,22 +1251,22 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>268</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -1316,12 +1316,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>255</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>195</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
           <t>18</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
     </row>
@@ -1446,17 +1446,17 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>345</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -1511,12 +1511,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>228</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1531,12 +1531,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -1576,17 +1576,17 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>368</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -1641,17 +1641,17 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>271</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1706,17 +1706,17 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>357</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1771,17 +1771,17 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>249</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -1836,17 +1836,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>213</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -1901,17 +1901,17 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>99</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -1966,17 +1966,17 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>267</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -2031,17 +2031,17 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>134</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2051,12 +2051,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2096,17 +2096,17 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>319</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2161,17 +2161,17 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>149</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2181,12 +2181,12 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2226,17 +2226,17 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>330</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2291,22 +2291,22 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>176</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -2356,17 +2356,17 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2421,22 +2421,22 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>188</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -2486,17 +2486,17 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>350</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -2551,17 +2551,17 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>216</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2571,12 +2571,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2616,17 +2616,17 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>366</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2681,22 +2681,22 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>251</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -2746,17 +2746,17 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>564</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>363</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2766,12 +2766,12 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2811,22 +2811,22 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>515</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>265</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -2876,17 +2876,17 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>106</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2941,22 +2941,22 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>271</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -3006,17 +3006,17 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>187</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -3071,22 +3071,22 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>280</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -3136,17 +3136,17 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>232</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3156,12 +3156,12 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -3201,22 +3201,22 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>400</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -3266,17 +3266,17 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>193</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3286,12 +3286,12 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -3331,22 +3331,22 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>398</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -3396,22 +3396,22 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>97</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -3461,17 +3461,17 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>102</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3526,17 +3526,17 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>123</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3546,12 +3546,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -3591,22 +3591,22 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>182</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -3656,32 +3656,32 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>171</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -3721,22 +3721,22 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>270</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -3786,17 +3786,17 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>189</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3811,7 +3811,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -3851,22 +3851,22 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>295</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -3916,17 +3916,17 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3936,12 +3936,12 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3981,22 +3981,22 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>272</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -4046,17 +4046,17 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>171</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4066,12 +4066,12 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -4111,22 +4111,22 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>344</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -4176,17 +4176,17 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>221</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -4241,22 +4241,22 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>382</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -4306,17 +4306,17 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>204</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -4371,17 +4371,17 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>646</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>409</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
     </row>
